--- a/mapping_analysis_to_file_template.xlsx
+++ b/mapping_analysis_to_file_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vensberg\Desktop\Work\Projects\Maloof_metadata_database\Templates_data_upload\20171114_finalizing_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\Data Base Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07F1352A-DC40-421A-9804-7F2BD8450D9E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,16 +30,16 @@
     <t>matf_id</t>
   </si>
   <si>
-    <t xml:space="preserve"> atf_analysis_id</t>
+    <t>matf_file</t>
   </si>
   <si>
-    <t>matf_file</t>
+    <t>matf_analysis_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +100,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -377,36 +378,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Autogenerated ID" prompt="Do not fill in." sqref="A1:A1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID from Analysis table" prompt="This ID has to already exist in the Analysis table." sqref="B1:B1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Data_file_name" prompt="This file name has to already exist in the Data_file table in the Data_file_name_SRA_filename field." sqref="C1:C1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Autogenerated ID" prompt="Do not fill in." sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID from Analysis table" prompt="This ID has to already exist in the Analysis table." sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID from Data_file table" prompt="This ID has to already exist in the Data_file table in the Data_file_id" sqref="C1:C1048576" xr:uid="{FAE59670-38CD-4A77-90AB-9ADD7C0ECC8E}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
